--- a/individual_case_outputs/harvard/527.xlsx
+++ b/individual_case_outputs/harvard/527.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,11 +652,7 @@
           <t>salmonella</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>gastroenteritis due to non-viral causes</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -664,11 +660,7 @@
           <t>salmonella</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>salmonella</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>lactose intolerance</t>
@@ -690,7 +682,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>salmonella</t>
+          <t>acute mesenteric ischemia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -723,11 +715,7 @@
           <t>shigella gastroenteritis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>acute mesenteric ischemia</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>salmonella</t>
@@ -794,29 +782,6 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>food poisoning</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
